--- a/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
-    <sheet name="28" sheetId="4" r:id="rId2"/>
+    <sheet name="Задача 1(28)" sheetId="4" r:id="rId2"/>
+    <sheet name="Задача 2(28)" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Задача 2(28)'!$B$17:$G$23</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
   <si>
     <t>№ з/п</t>
   </si>
@@ -108,6 +112,45 @@
   </si>
   <si>
     <t>Rj</t>
+  </si>
+  <si>
+    <t>Сумма инвестиций, тис. руб</t>
+  </si>
+  <si>
+    <t>Срок функционирования, лет</t>
+  </si>
+  <si>
+    <t>Денежный поток за весь срок, тыс. руб</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>Б</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>Г</t>
+  </si>
+  <si>
+    <t>Д</t>
+  </si>
+  <si>
+    <t>Е</t>
+  </si>
+  <si>
+    <t>Инвестиционный проект</t>
+  </si>
+  <si>
+    <t>NPV, тис. руб</t>
+  </si>
+  <si>
+    <t>Вариант №</t>
+  </si>
+  <si>
+    <t>ТЗМ2</t>
   </si>
 </sst>
 </file>
@@ -115,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +197,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -169,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -331,11 +381,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,21 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -383,7 +453,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -400,14 +470,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,23 +823,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -757,42 +855,42 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>0.23</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>0.20300000000000001</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>0.17299999999999999</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <v>0.17799999999999999</v>
       </c>
       <c r="I5">
@@ -855,36 +953,36 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>0.126</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>0.113</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <v>0.123</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <v>0.115</v>
       </c>
       <c r="I9">
@@ -947,36 +1045,36 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>2.6139999999999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <v>3.8759999999999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <v>2.9990000000000001</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <v>2.89</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="6">
         <v>2.58</v>
       </c>
       <c r="I13">
@@ -1066,36 +1164,36 @@
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <v>1.2410000000000001</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>1.946</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>1.6619999999999999</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <v>1.2310000000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <v>1.17</v>
       </c>
       <c r="I18">
@@ -1158,24 +1256,24 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1196,23 +1294,23 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <f>D5/$I5</f>
         <v>0.84782608695652173</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <f t="shared" ref="F27:I27" si="1">E5/$I5</f>
         <v>1</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="12">
         <f t="shared" si="1"/>
         <v>0.88260869565217392</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <f t="shared" si="1"/>
         <v>0.75217391304347814</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <f t="shared" si="1"/>
         <v>0.77391304347826084</v>
       </c>
@@ -1221,23 +1319,23 @@
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <f t="shared" ref="E28:I28" si="2">D6/$I6</f>
         <v>0.65972222222222221</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="12">
         <f t="shared" si="2"/>
         <v>0.96296296296296291</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <f t="shared" si="2"/>
         <v>0.74305555555555558</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <f t="shared" si="2"/>
         <v>0.65509259259259256</v>
       </c>
@@ -1246,23 +1344,23 @@
       <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <f t="shared" ref="E29:I29" si="3">D7/$I7</f>
         <v>0.82089552238805963</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <f t="shared" si="3"/>
         <v>0.88059701492537301</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <f t="shared" si="3"/>
         <v>0.72388059701492535</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <f t="shared" si="3"/>
         <v>0.74626865671641796</v>
       </c>
@@ -1271,23 +1369,23 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="12">
         <f>D9/$I9</f>
         <v>1</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="12">
         <f t="shared" ref="F30:I30" si="4">E9/$I9</f>
         <v>0.89682539682539686</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="12">
         <f t="shared" si="4"/>
         <v>0.97619047619047616</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <f t="shared" si="4"/>
         <v>0.80952380952380942</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="12">
         <f t="shared" si="4"/>
         <v>0.91269841269841279</v>
       </c>
@@ -1296,23 +1394,23 @@
       <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <f t="shared" ref="E31:I31" si="5">D10/$I10</f>
         <v>1</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="12">
         <f t="shared" si="5"/>
         <v>0.6875</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <f t="shared" si="5"/>
         <v>0.99431818181818177</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <f t="shared" si="5"/>
         <v>0.97727272727272729</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <f t="shared" si="5"/>
         <v>0.90340909090909094</v>
       </c>
@@ -1321,23 +1419,23 @@
       <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <f t="shared" ref="E32:I32" si="6">D11/$I11</f>
         <v>0.98930481283422456</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <f t="shared" si="6"/>
         <v>0.70053475935828879</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="12">
         <f t="shared" si="6"/>
         <v>0.97860962566844922</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <f t="shared" si="6"/>
         <v>0.90374331550802145</v>
       </c>
@@ -1346,23 +1444,23 @@
       <c r="D33" s="2">
         <v>7</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="12">
         <f>D13/$I13</f>
         <v>0.67440660474716196</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="12">
         <f t="shared" ref="F33:I33" si="7">E13/$I13</f>
         <v>1</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="12">
         <f t="shared" si="7"/>
         <v>0.77373581011351911</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="12">
         <f t="shared" si="7"/>
         <v>0.7456140350877194</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="12">
         <f t="shared" si="7"/>
         <v>0.66563467492260064</v>
       </c>
@@ -1371,23 +1469,23 @@
       <c r="D34" s="2">
         <v>8</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <f t="shared" ref="E34:I34" si="8">D14/$I14</f>
         <v>0.88342198581560294</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="12">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="12">
         <f t="shared" si="8"/>
         <v>0.88342198581560294</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="12">
         <f t="shared" si="8"/>
         <v>0.92553191489361719</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="12">
         <f t="shared" si="8"/>
         <v>0.88164893617021289</v>
       </c>
@@ -1396,23 +1494,23 @@
       <c r="D35" s="2">
         <v>9</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <f t="shared" ref="E35:I35" si="9">D15/$I15</f>
         <v>0.96740310766254012</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <f t="shared" si="9"/>
         <v>0.92500345515212534</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="12">
         <f t="shared" si="9"/>
         <v>0.98728504017848329</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <f t="shared" si="9"/>
         <v>0.92983079626448695</v>
       </c>
@@ -1421,23 +1519,23 @@
       <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="17">
-        <f t="shared" ref="E36:I37" si="10">D16/$I16</f>
+      <c r="E36" s="12">
+        <f t="shared" ref="E36:I36" si="10">D16/$I16</f>
         <v>0.59632063074901442</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="12">
         <f t="shared" si="10"/>
         <v>0.88804204993429692</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <f t="shared" si="10"/>
         <v>0.8199737187910644</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="12">
         <f t="shared" si="10"/>
         <v>0.64388961892247043</v>
       </c>
@@ -1446,23 +1544,23 @@
       <c r="D37" s="2">
         <v>11</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <f>D18/$I18</f>
         <v>0.63771839671120256</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="12">
         <f t="shared" ref="F37:I37" si="11">E18/$I18</f>
         <v>1</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="12">
         <f t="shared" si="11"/>
         <v>0.85405960945529291</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="12">
         <f t="shared" si="11"/>
         <v>0.63257965056526211</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="12">
         <f t="shared" si="11"/>
         <v>0.60123329907502565</v>
       </c>
@@ -1471,23 +1569,23 @@
       <c r="D38" s="2">
         <v>12</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <f t="shared" ref="E38:I38" si="12">D19/$I19</f>
         <v>0.53191489361702127</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <f t="shared" si="12"/>
         <v>0.7021276595744681</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="12">
         <f t="shared" si="12"/>
         <v>0.54255319148936165</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="12">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
@@ -1496,46 +1594,46 @@
       <c r="D39" s="2">
         <v>13</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <f t="shared" ref="E39:I39" si="13">D20/$I20</f>
         <v>1</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="12">
         <f t="shared" si="13"/>
         <v>0.78152492668621698</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="12">
         <f t="shared" si="13"/>
         <v>0.71847507331378291</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <f t="shared" si="13"/>
         <v>0.7917888563049853</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="12">
         <f t="shared" si="13"/>
         <v>0.92082111436950143</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="5"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1556,23 +1654,23 @@
       <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <f>POWER(1-E27,2)</f>
         <v>2.3156899810964086E-2</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="12">
         <f t="shared" ref="F44:I44" si="14">POWER(1-F27,2)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="12">
         <f t="shared" si="14"/>
         <v>1.378071833648393E-2</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <f t="shared" si="14"/>
         <v>6.1417769376181534E-2</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="12">
         <f t="shared" si="14"/>
         <v>5.1115311909262773E-2</v>
       </c>
@@ -1581,23 +1679,23 @@
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <f t="shared" ref="E45:I56" si="15">POWER(1-E28,2)</f>
         <v>0.11578896604938273</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <f t="shared" si="15"/>
         <v>1.3717421124828572E-3</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <f t="shared" si="15"/>
         <v>6.6020447530864182E-2</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <f t="shared" si="15"/>
         <v>0.11896111968449934</v>
       </c>
@@ -1606,23 +1704,23 @@
       <c r="D46" s="2">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <f t="shared" si="15"/>
         <v>3.2078413900646051E-2</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="12">
         <f t="shared" si="15"/>
         <v>1.4257072844731595E-2</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="12">
         <f t="shared" si="15"/>
         <v>7.6241924704834055E-2</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <f t="shared" si="15"/>
         <v>6.4379594564490952E-2</v>
       </c>
@@ -1631,23 +1729,23 @@
       <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="12">
         <f t="shared" si="15"/>
         <v>1.0644998740236829E-2</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="12">
         <f t="shared" si="15"/>
         <v>5.6689342403628239E-4</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <f t="shared" si="15"/>
         <v>3.6281179138322031E-2</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="12">
         <f t="shared" si="15"/>
         <v>7.6215671453766535E-3</v>
       </c>
@@ -1656,23 +1754,23 @@
       <c r="D48" s="2">
         <v>5</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="12">
         <f t="shared" si="15"/>
         <v>9.765625E-2</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="12">
         <f t="shared" si="15"/>
         <v>3.228305785124024E-5</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="12">
         <f t="shared" si="15"/>
         <v>5.1652892561983375E-4</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="12">
         <f t="shared" si="15"/>
         <v>9.3298037190082585E-3</v>
       </c>
@@ -1681,23 +1779,23 @@
       <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="12">
         <f t="shared" si="15"/>
         <v>1.1438702851096777E-4</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="12">
         <f t="shared" si="15"/>
         <v>8.9679430352597997E-2</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="12">
         <f t="shared" si="15"/>
         <v>4.5754811404386631E-4</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="12">
         <f t="shared" si="15"/>
         <v>9.265349309388304E-3</v>
       </c>
@@ -1706,23 +1804,23 @@
       <c r="D50" s="2">
         <v>7</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <f t="shared" si="15"/>
         <v>0.10601105903227082</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="12">
         <f t="shared" si="15"/>
         <v>5.119548362498548E-2</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <f t="shared" si="15"/>
         <v>6.4712219144352059E-2</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="12">
         <f t="shared" si="15"/>
         <v>0.11180017061411494</v>
       </c>
@@ -1731,23 +1829,23 @@
       <c r="D51" s="2">
         <v>8</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="12">
         <f t="shared" si="15"/>
         <v>1.3590433391177482E-2</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="12">
         <f t="shared" si="15"/>
         <v>1.3590433391177482E-2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="12">
         <f t="shared" si="15"/>
         <v>5.5454956994114733E-3</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="12">
         <f t="shared" si="15"/>
         <v>1.4006974309642341E-2</v>
       </c>
@@ -1756,23 +1854,23 @@
       <c r="D52" s="2">
         <v>9</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="12">
         <f t="shared" si="15"/>
         <v>1.0625573900599507E-3</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <f t="shared" si="15"/>
         <v>5.6244817391192751E-3</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="12">
         <f t="shared" si="15"/>
         <v>1.6167020326278433E-4</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="12">
         <f t="shared" si="15"/>
         <v>4.9237171528759387E-3</v>
       </c>
@@ -1781,23 +1879,23 @@
       <c r="D53" s="2">
         <v>10</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="12">
         <f t="shared" si="15"/>
         <v>0.16295703315887355</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="12">
         <f t="shared" si="15"/>
         <v>1.2534582582914466E-2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <f t="shared" si="15"/>
         <v>3.2409461925918759E-2</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="12">
         <f t="shared" si="15"/>
         <v>0.12681460351118334</v>
       </c>
@@ -1806,23 +1904,23 @@
       <c r="D54" s="2">
         <v>11</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="12">
         <f t="shared" si="15"/>
         <v>0.13124796008150161</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="12">
         <f t="shared" si="15"/>
         <v>2.129859759234163E-2</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="12">
         <f t="shared" si="15"/>
         <v>0.1349977131787449</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="12">
         <f t="shared" si="15"/>
         <v>0.15901488176658793</v>
       </c>
@@ -1831,73 +1929,73 @@
       <c r="D55" s="2">
         <v>12</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="12">
         <f t="shared" si="15"/>
         <v>0.21910366681756452</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="12">
         <f t="shared" si="15"/>
         <v>8.8727931190583961E-2</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <f t="shared" si="15"/>
         <v>0.20925758261656863</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="12">
         <f t="shared" si="15"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="23">
+      <c r="D56" s="18">
         <v>13</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="19">
         <f t="shared" si="15"/>
         <v>4.7731357659462868E-2</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="19">
         <f t="shared" si="15"/>
         <v>7.9256284345679912E-2</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="19">
         <f t="shared" si="15"/>
         <v>4.3351880358786059E-2</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="19">
         <f t="shared" si="15"/>
         <v>6.2692959296875737E-3</v>
       </c>
     </row>
     <row r="57" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="21">
         <f>SQRT(SUM(E44:E56))</f>
         <v>0.89727998788614016</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="21">
         <f t="shared" ref="F57:I57" si="16">SQRT(SUM(F44:F56))</f>
         <v>0.5013347369686415</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="21">
         <f t="shared" si="16"/>
         <v>0.54476939406186509</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="21">
         <f t="shared" si="16"/>
         <v>0.85510803452759543</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="22">
         <f t="shared" si="16"/>
         <v>0.9661792740563826</v>
       </c>
@@ -1907,7 +2005,7 @@
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="21">
         <f>$F$57</f>
         <v>0.5013347369686415</v>
       </c>
@@ -1916,7 +2014,7 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="21">
         <f>$G$57</f>
         <v>0.54476939406186509</v>
       </c>
@@ -1925,7 +2023,7 @@
       <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="21">
         <f>$H$57</f>
         <v>0.85510803452759543</v>
       </c>
@@ -1934,7 +2032,7 @@
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="21">
         <f>$E$57</f>
         <v>0.89727998788614016</v>
       </c>
@@ -1943,7 +2041,7 @@
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="22">
         <f>$I$57</f>
         <v>0.9661792740563826</v>
       </c>
@@ -1953,13 +2051,13 @@
     <sortCondition ref="E64"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:I25"/>
     <mergeCell ref="D42:D43"/>
     <mergeCell ref="E42:I42"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1970,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -1990,33 +2088,33 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="K2" s="4" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="K2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2032,11 +2130,11 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2054,48 +2152,48 @@
       </c>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="K4" s="18" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <f>L5+$K$1/100</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:H5" si="0">M5+$K$1/100</f>
         <v>0.51</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.48300000000000004</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.45300000000000001</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0.45800000000000002</v>
       </c>
@@ -2103,22 +2201,22 @@
         <f>MAX(D5:H5)</f>
         <v>0.51</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="6">
         <v>0.19500000000000001</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="6">
         <v>0.23</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="6">
         <v>0.20300000000000001</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="6">
         <v>0.17299999999999999</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="6">
         <v>0.17799999999999999</v>
       </c>
     </row>
@@ -2129,23 +2227,23 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:D7" si="1">L6+$K$1/100</f>
         <v>0.56499999999999995</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <f t="shared" ref="E6:E7" si="2">M6+$K$1/100</f>
         <v>0.71199999999999997</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <f t="shared" ref="F6:F7" si="3">N6+$K$1/100</f>
         <v>0.69599999999999995</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="6">
         <f t="shared" ref="G6:G7" si="4">O6+$K$1/100</f>
         <v>0.60099999999999998</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="6">
         <f t="shared" ref="H6:H7" si="5">P6+$K$1/100</f>
         <v>0.56299999999999994</v>
       </c>
@@ -2179,23 +2277,23 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="6">
         <f t="shared" si="2"/>
         <v>0.54800000000000004</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="6">
         <f t="shared" si="3"/>
         <v>0.51600000000000001</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="6">
         <f t="shared" si="4"/>
         <v>0.47400000000000003</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>0.48000000000000004</v>
       </c>
@@ -2223,48 +2321,48 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="K8" s="18" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <f>L9+$K$1/100</f>
         <v>0.40600000000000003</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <f t="shared" ref="E9:H9" si="7">M9+$K$1/100</f>
         <v>0.39300000000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <f t="shared" si="7"/>
         <v>0.40300000000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>0.38200000000000001</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="6">
         <f t="shared" si="7"/>
         <v>0.39500000000000002</v>
       </c>
@@ -2272,22 +2370,22 @@
         <f t="shared" si="6"/>
         <v>0.40600000000000003</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="4">
         <v>4</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="6">
         <v>0.126</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="6">
         <v>0.113</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="6">
         <v>0.123</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="6">
         <v>0.10199999999999999</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="6">
         <v>0.115</v>
       </c>
     </row>
@@ -2298,23 +2396,23 @@
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:D13" si="8">L10+$K$1/100</f>
         <v>0.45600000000000002</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="6">
         <f t="shared" ref="E10:E11" si="9">M10+$K$1/100</f>
         <v>0.40100000000000002</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="10">N10+$K$1/100</f>
         <v>0.45500000000000002</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <f t="shared" ref="G10:G11" si="11">O10+$K$1/100</f>
         <v>0.45200000000000001</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="6">
         <f t="shared" ref="H10:H11" si="12">P10+$K$1/100</f>
         <v>0.43900000000000006</v>
       </c>
@@ -2348,23 +2446,23 @@
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <f t="shared" si="8"/>
         <v>0.46500000000000002</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <f t="shared" si="9"/>
         <v>0.41100000000000003</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="6">
         <f t="shared" si="10"/>
         <v>0.46700000000000003</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="6">
         <f t="shared" si="11"/>
         <v>0.46300000000000002</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="6">
         <f t="shared" si="12"/>
         <v>0.44900000000000007</v>
       </c>
@@ -2392,48 +2490,48 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="K12" s="18" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="K12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="2:16" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <f t="shared" si="8"/>
         <v>2.8940000000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <f t="shared" ref="E13" si="13">M13+$K$1/100</f>
         <v>4.1559999999999997</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <f t="shared" ref="F13" si="14">N13+$K$1/100</f>
         <v>3.2789999999999999</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <f t="shared" ref="G13" si="15">O13+$K$1/100</f>
         <v>3.17</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="6">
         <f t="shared" ref="H13" si="16">P13+$K$1/100</f>
         <v>2.8600000000000003</v>
       </c>
@@ -2441,22 +2539,22 @@
         <f t="shared" si="6"/>
         <v>4.1559999999999997</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="4">
         <v>7</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="6">
         <v>2.6139999999999999</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="6">
         <v>3.8759999999999999</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="6">
         <v>2.9990000000000001</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="6">
         <v>2.89</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="6">
         <v>2.58</v>
       </c>
     </row>
@@ -2467,23 +2565,23 @@
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <f t="shared" ref="D14:D18" si="17">L14+$K$1/100</f>
         <v>4.266</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <f t="shared" ref="E14:E16" si="18">M14+$K$1/100</f>
         <v>4.7919999999999998</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <f t="shared" ref="F14:F16" si="19">N14+$K$1/100</f>
         <v>4.266</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <f t="shared" ref="G14:G16" si="20">O14+$K$1/100</f>
         <v>4.4560000000000004</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="6">
         <f t="shared" ref="H14:H16" si="21">P14+$K$1/100</f>
         <v>4.258</v>
       </c>
@@ -2517,23 +2615,23 @@
       <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="6">
         <f t="shared" si="17"/>
         <v>98.275999999999996</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="6">
         <f t="shared" si="18"/>
         <v>93.980999999999995</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <f t="shared" si="19"/>
         <v>100.29</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="6">
         <f t="shared" si="20"/>
         <v>101.578</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="6">
         <f t="shared" si="21"/>
         <v>94.47</v>
       </c>
@@ -2567,23 +2665,23 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="6">
         <f t="shared" si="17"/>
         <v>2.5490000000000004</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="6">
         <f t="shared" si="18"/>
         <v>4.085</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="6">
         <f t="shared" si="19"/>
         <v>3.6589999999999998</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="6">
         <f t="shared" si="20"/>
         <v>3.4000000000000004</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="6">
         <f t="shared" si="21"/>
         <v>2.7300000000000004</v>
       </c>
@@ -2611,48 +2709,48 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="K17" s="18" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="K17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
     </row>
     <row r="18" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="4">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="6">
         <f t="shared" si="17"/>
         <v>1.5210000000000001</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <f t="shared" ref="E18" si="22">M18+$K$1/100</f>
         <v>2.226</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <f t="shared" ref="F18" si="23">N18+$K$1/100</f>
         <v>1.9419999999999999</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="6">
         <f t="shared" ref="G18" si="24">O18+$K$1/100</f>
         <v>1.5110000000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="6">
         <f t="shared" ref="H18" si="25">P18+$K$1/100</f>
         <v>1.45</v>
       </c>
@@ -2660,22 +2758,22 @@
         <f t="shared" si="6"/>
         <v>2.226</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="4">
         <v>11</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="6">
         <v>1.2410000000000001</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="6">
         <v>1.946</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="6">
         <v>1.6619999999999999</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="6">
         <v>1.2310000000000001</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="6">
         <v>1.17</v>
       </c>
     </row>
@@ -2686,23 +2784,23 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="6">
         <f t="shared" ref="D19:D20" si="26">L19+$K$1/100</f>
         <v>0.33</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <f t="shared" ref="E19:E20" si="27">M19+$K$1/100</f>
         <v>0.374</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <f t="shared" ref="F19:F20" si="28">N19+$K$1/100</f>
         <v>0.34600000000000003</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="6">
         <f t="shared" ref="G19:G20" si="29">O19+$K$1/100</f>
         <v>0.33100000000000002</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="6">
         <f t="shared" ref="H19:H20" si="30">P19+$K$1/100</f>
         <v>0.32700000000000001</v>
       </c>
@@ -2736,23 +2834,23 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <f t="shared" si="26"/>
         <v>0.96200000000000008</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <f t="shared" si="27"/>
         <v>0.81300000000000006</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <f t="shared" si="28"/>
         <v>0.77</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="6">
         <f t="shared" si="29"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="6">
         <f t="shared" si="30"/>
         <v>0.90800000000000003</v>
       </c>
@@ -2780,24 +2878,24 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="5"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2818,23 +2916,23 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <f>D5/$I5</f>
         <v>0.93137254901960786</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="12">
         <f t="shared" ref="F27:I27" si="31">E5/$I5</f>
         <v>1</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="12">
         <f t="shared" si="31"/>
         <v>0.94705882352941184</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="12">
         <f t="shared" si="31"/>
         <v>0.88823529411764712</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="12">
         <f t="shared" si="31"/>
         <v>0.89803921568627454</v>
       </c>
@@ -2843,23 +2941,23 @@
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <f t="shared" ref="E28:I29" si="32">D6/$I6</f>
         <v>0.7935393258426966</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="12">
         <f t="shared" si="32"/>
         <v>0.97752808988764039</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="12">
         <f t="shared" si="32"/>
         <v>0.8441011235955056</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="12">
         <f t="shared" si="32"/>
         <v>0.79073033707865159</v>
       </c>
@@ -2868,23 +2966,23 @@
       <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <f t="shared" si="32"/>
         <v>0.91240875912408748</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="12">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="12">
         <f t="shared" si="32"/>
         <v>0.94160583941605835</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="12">
         <f t="shared" si="32"/>
         <v>0.86496350364963503</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="12">
         <f t="shared" si="32"/>
         <v>0.87591240875912413</v>
       </c>
@@ -2893,23 +2991,23 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="12">
         <f>D9/$I9</f>
         <v>1</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="12">
         <f t="shared" ref="F30:I30" si="33">E9/$I9</f>
         <v>0.96798029556650245</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="12">
         <f t="shared" si="33"/>
         <v>0.9926108374384236</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="12">
         <f t="shared" si="33"/>
         <v>0.94088669950738912</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="12">
         <f t="shared" si="33"/>
         <v>0.97290640394088668</v>
       </c>
@@ -2918,23 +3016,23 @@
       <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="12">
         <f t="shared" ref="E31:I32" si="34">D10/$I10</f>
         <v>1</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="12">
         <f t="shared" si="34"/>
         <v>0.87938596491228072</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="12">
         <f t="shared" si="34"/>
         <v>0.9978070175438597</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="12">
         <f t="shared" si="34"/>
         <v>0.99122807017543857</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="12">
         <f t="shared" si="34"/>
         <v>0.96271929824561409</v>
       </c>
@@ -2943,23 +3041,23 @@
       <c r="D32" s="2">
         <v>6</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="12">
         <f t="shared" si="34"/>
         <v>0.99571734475374729</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="12">
         <f t="shared" si="34"/>
         <v>0.88008565310492504</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="12">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="12">
         <f t="shared" si="34"/>
         <v>0.99143468950749469</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="12">
         <f t="shared" si="34"/>
         <v>0.96145610278372595</v>
       </c>
@@ -2968,23 +3066,23 @@
       <c r="D33" s="2">
         <v>7</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="12">
         <f>D13/$I13</f>
         <v>0.69634263715110689</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="12">
         <f t="shared" ref="F33:I33" si="35">E13/$I13</f>
         <v>1</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="12">
         <f t="shared" si="35"/>
         <v>0.78897978825794035</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="12">
         <f t="shared" si="35"/>
         <v>0.76275264677574595</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="12">
         <f t="shared" si="35"/>
         <v>0.68816169393647753</v>
       </c>
@@ -2993,23 +3091,23 @@
       <c r="D34" s="2">
         <v>8</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <f t="shared" ref="E34:I36" si="36">D14/$I14</f>
         <v>0.89023372287145242</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="12">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="12">
         <f t="shared" si="36"/>
         <v>0.89023372287145242</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="12">
         <f t="shared" si="36"/>
         <v>0.92988313856427396</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="12">
         <f t="shared" si="36"/>
         <v>0.88856427378964942</v>
       </c>
@@ -3018,23 +3116,23 @@
       <c r="D35" s="2">
         <v>9</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <f t="shared" si="36"/>
         <v>0.96749296107424831</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="12">
         <f t="shared" si="36"/>
         <v>0.92521018330740901</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="12">
         <f t="shared" si="36"/>
         <v>0.98732008899564871</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="12">
         <f t="shared" si="36"/>
         <v>0.93002421784244615</v>
       </c>
@@ -3043,23 +3141,23 @@
       <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="12">
         <f t="shared" si="36"/>
         <v>0.6239902080783355</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="12">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="12">
         <f t="shared" si="36"/>
         <v>0.89571603427172575</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="12">
         <f t="shared" si="36"/>
         <v>0.83231334149326819</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="12">
         <f t="shared" si="36"/>
         <v>0.66829865361077123</v>
       </c>
@@ -3068,23 +3166,23 @@
       <c r="D37" s="2">
         <v>11</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <f>D18/$I18</f>
         <v>0.68328840970350413</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="12">
         <f t="shared" ref="F37:I37" si="37">E18/$I18</f>
         <v>1</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="12">
         <f t="shared" si="37"/>
         <v>0.87241689128481581</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="12">
         <f t="shared" si="37"/>
         <v>0.67879604672057503</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="12">
         <f t="shared" si="37"/>
         <v>0.65139263252470803</v>
       </c>
@@ -3093,23 +3191,23 @@
       <c r="D38" s="2">
         <v>12</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <f t="shared" ref="E38:I39" si="38">D19/$I19</f>
         <v>0.88235294117647067</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="12">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="12">
         <f t="shared" si="38"/>
         <v>0.92513368983957223</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="12">
         <f t="shared" si="38"/>
         <v>0.88502673796791453</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="12">
         <f t="shared" si="38"/>
         <v>0.87433155080213909</v>
       </c>
@@ -3118,46 +3216,46 @@
       <c r="D39" s="2">
         <v>13</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="12">
         <f t="shared" si="38"/>
         <v>0.84511434511434513</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="12">
         <f t="shared" si="38"/>
         <v>0.8004158004158004</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="12">
         <f t="shared" si="38"/>
         <v>0.85239085239085244</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="12">
         <f t="shared" si="38"/>
         <v>0.94386694386694381</v>
       </c>
     </row>
     <row r="41" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="8"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="5"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3178,23 +3276,23 @@
       <c r="D44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <f>POWER(1-E27,2)</f>
         <v>4.7097270280661253E-3</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="12">
         <f t="shared" ref="F44:I44" si="39">POWER(1-F27,2)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="12">
         <f t="shared" si="39"/>
         <v>2.8027681660899571E-3</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <f t="shared" si="39"/>
         <v>1.2491349480968843E-2</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="12">
         <f t="shared" si="39"/>
         <v>1.0396001537870044E-2</v>
       </c>
@@ -3203,23 +3301,23 @@
       <c r="D45" s="2">
         <v>2</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <f t="shared" ref="E45:I45" si="40">POWER(1-E28,2)</f>
         <v>4.2626009973488206E-2</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="12">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G45" s="12">
         <f t="shared" si="40"/>
         <v>5.0498674409796989E-4</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="12">
         <f t="shared" si="40"/>
         <v>2.4304459664183823E-2</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="12">
         <f t="shared" si="40"/>
         <v>4.3793791819214785E-2</v>
       </c>
@@ -3228,23 +3326,23 @@
       <c r="D46" s="2">
         <v>3</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <f t="shared" ref="E46:I46" si="41">POWER(1-E29,2)</f>
         <v>7.6722254781821288E-3</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="12">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="12">
         <f t="shared" si="41"/>
         <v>3.4098779903031641E-3</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="12">
         <f t="shared" si="41"/>
         <v>1.8234855346582132E-2</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="12">
         <f t="shared" si="41"/>
         <v>1.5397730299962694E-2</v>
       </c>
@@ -3253,23 +3351,23 @@
       <c r="D47" s="2">
         <v>4</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <f t="shared" ref="E47:I47" si="42">POWER(1-E30,2)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="12">
         <f t="shared" si="42"/>
         <v>1.0252614720085429E-3</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="12">
         <f t="shared" si="42"/>
         <v>5.4599723361402322E-5</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="12">
         <f t="shared" si="42"/>
         <v>3.4943822951297092E-3</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="12">
         <f t="shared" si="42"/>
         <v>7.3406294741440101E-4</v>
       </c>
@@ -3278,23 +3376,23 @@
       <c r="D48" s="2">
         <v>5</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="12">
         <f t="shared" ref="E48:I48" si="43">POWER(1-E31,2)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="12">
         <f t="shared" si="43"/>
         <v>1.4547745460141578E-2</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="12">
         <f t="shared" si="43"/>
         <v>4.8091720529391523E-6</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="12">
         <f t="shared" si="43"/>
         <v>7.694675284703034E-5</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="12">
         <f t="shared" si="43"/>
         <v>1.389850723299473E-3</v>
       </c>
@@ -3303,23 +3401,23 @@
       <c r="D49" s="2">
         <v>6</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="12">
         <f t="shared" ref="E49:I49" si="44">POWER(1-E32,2)</f>
         <v>1.8341135958255853E-5</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="12">
         <f t="shared" si="44"/>
         <v>1.4379450591272375E-2</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="12">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="12">
         <f t="shared" si="44"/>
         <v>7.3364543833021501E-5</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="12">
         <f t="shared" si="44"/>
         <v>1.4856320126186984E-3</v>
       </c>
@@ -3328,23 +3426,23 @@
       <c r="D50" s="2">
         <v>7</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <f t="shared" ref="E50:I50" si="45">POWER(1-E33,2)</f>
         <v>9.220779401234433E-2</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="12">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G50" s="12">
         <f t="shared" si="45"/>
         <v>4.4529529763663686E-2</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="12">
         <f t="shared" si="45"/>
         <v>5.6286306611913972E-2</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="12">
         <f t="shared" si="45"/>
         <v>9.7243129128567113E-2</v>
       </c>
@@ -3353,23 +3451,23 @@
       <c r="D51" s="2">
         <v>8</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="12">
         <f t="shared" ref="E51:I51" si="46">POWER(1-E34,2)</f>
         <v>1.2048635594661109E-2</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="12">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="12">
         <f t="shared" si="46"/>
         <v>1.2048635594661109E-2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="12">
         <f t="shared" si="46"/>
         <v>4.9163742575968061E-3</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="12">
         <f t="shared" si="46"/>
         <v>1.2417921076028215E-2</v>
       </c>
@@ -3378,23 +3476,23 @@
       <c r="D52" s="2">
         <v>9</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="12">
         <f t="shared" ref="E52:I52" si="47">POWER(1-E35,2)</f>
         <v>1.0567075797203354E-3</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="12">
         <f t="shared" si="47"/>
         <v>5.5935166809113626E-3</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="12">
         <f t="shared" si="47"/>
         <v>1.6078014307826881E-4</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="12">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="12">
         <f t="shared" si="47"/>
         <v>4.8966100885614308E-3</v>
       </c>
@@ -3403,23 +3501,23 @@
       <c r="D53" s="2">
         <v>10</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="12">
         <f t="shared" ref="E53:I53" si="48">POWER(1-E36,2)</f>
         <v>0.14138336362097342</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="12">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="12">
         <f t="shared" si="48"/>
         <v>1.0875145508015879E-2</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <f t="shared" si="48"/>
         <v>2.8118815441153293E-2</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="12">
         <f t="shared" si="48"/>
         <v>0.11002578319642713</v>
       </c>
@@ -3428,23 +3526,23 @@
       <c r="D54" s="2">
         <v>11</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="12">
         <f t="shared" ref="E54:I54" si="49">POWER(1-E37,2)</f>
         <v>0.10030623142813545</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="12">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="12">
         <f t="shared" si="49"/>
         <v>1.6277449629430507E-2</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="12">
         <f t="shared" si="49"/>
         <v>0.10317197960233102</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="12">
         <f t="shared" si="49"/>
         <v>0.12152709665805325</v>
       </c>
@@ -3453,73 +3551,73 @@
       <c r="D55" s="2">
         <v>12</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="12">
         <f t="shared" ref="E55:I55" si="50">POWER(1-E38,2)</f>
         <v>1.3840830449826969E-2</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="12">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="12">
         <f t="shared" si="50"/>
         <v>5.6049643970373705E-3</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="12">
         <f t="shared" si="50"/>
         <v>1.3218850982298585E-2</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="12">
         <f t="shared" si="50"/>
         <v>1.5792559123795347E-2</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="23">
+      <c r="D56" s="18">
         <v>13</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="19">
         <f t="shared" ref="E56:I56" si="51">POWER(1-E39,2)</f>
         <v>0</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="19">
         <f t="shared" si="51"/>
         <v>2.3989566089358184E-2</v>
       </c>
-      <c r="G56" s="24">
+      <c r="G56" s="19">
         <f t="shared" si="51"/>
         <v>3.9833852723665616E-2</v>
       </c>
-      <c r="H56" s="24">
+      <c r="H56" s="19">
         <f t="shared" si="51"/>
         <v>2.1788460457899114E-2</v>
       </c>
-      <c r="I56" s="24">
+      <c r="I56" s="19">
         <f t="shared" si="51"/>
         <v>3.1509199908368373E-3</v>
       </c>
     </row>
     <row r="57" spans="4:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="25" t="s">
+      <c r="D57" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="21">
         <f>SQRT(SUM(E44:E56))</f>
         <v>0.64487973010582089</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="21">
         <f t="shared" ref="F57:I57" si="52">SQRT(SUM(F44:F56))</f>
         <v>0.24399905797705868</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G57" s="21">
         <f t="shared" si="52"/>
         <v>0.36892736352222216</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="21">
         <f t="shared" si="52"/>
         <v>0.53495433958118088</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="22">
         <f t="shared" si="52"/>
         <v>0.66200535390784376</v>
       </c>
@@ -3529,7 +3627,7 @@
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="26">
+      <c r="E64" s="21">
         <f>$F$57</f>
         <v>0.24399905797705868</v>
       </c>
@@ -3538,7 +3636,7 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E65" s="21">
         <f>$G$57</f>
         <v>0.36892736352222216</v>
       </c>
@@ -3547,7 +3645,7 @@
       <c r="D66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="26">
+      <c r="E66" s="21">
         <f>$H$57</f>
         <v>0.53495433958118088</v>
       </c>
@@ -3556,7 +3654,7 @@
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="26">
+      <c r="E67" s="21">
         <f>$E$57</f>
         <v>0.64487973010582089</v>
       </c>
@@ -3565,7 +3663,7 @@
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="22">
         <f>$I$57</f>
         <v>0.66200535390784376</v>
       </c>
@@ -3588,4 +3686,354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H18:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="30">
+        <v>720</v>
+      </c>
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30">
+        <v>790</v>
+      </c>
+      <c r="F3" s="30">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <f>F3/C3</f>
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="30">
+        <v>450</v>
+      </c>
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30">
+        <v>560</v>
+      </c>
+      <c r="F4" s="30">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="0">F4/C4</f>
+        <v>0.24444444444444444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="30">
+        <v>230</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <v>300</v>
+      </c>
+      <c r="F5" s="30">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="30">
+        <v>900</v>
+      </c>
+      <c r="D6" s="30">
+        <v>4</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1040</v>
+      </c>
+      <c r="F6" s="30">
+        <v>140</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="30">
+        <v>500</v>
+      </c>
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30">
+        <v>500</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="30">
+        <v>800</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>960</v>
+      </c>
+      <c r="F8" s="30">
+        <v>160</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="30">
+        <f>C3+$C$1</f>
+        <v>748</v>
+      </c>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
+      <c r="E18" s="30">
+        <f>E3+$C$1</f>
+        <v>818</v>
+      </c>
+      <c r="F18" s="30">
+        <v>70</v>
+      </c>
+      <c r="G18" s="31">
+        <f>F18/C18</f>
+        <v>9.3582887700534759E-2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="30">
+        <f>C4+$C$1</f>
+        <v>478</v>
+      </c>
+      <c r="D19" s="30">
+        <v>3</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:E23" si="1">E4+$C$1</f>
+        <v>588</v>
+      </c>
+      <c r="F19" s="30">
+        <v>110</v>
+      </c>
+      <c r="G19" s="31">
+        <f>F19/C19</f>
+        <v>0.23012552301255229</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="30">
+        <f>C5+$C$1</f>
+        <v>258</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="F20" s="30">
+        <v>70</v>
+      </c>
+      <c r="G20" s="31">
+        <f>F20/C20</f>
+        <v>0.27131782945736432</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="30">
+        <f>C6+$C$1</f>
+        <v>928</v>
+      </c>
+      <c r="D21" s="30">
+        <v>4</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="1"/>
+        <v>1068</v>
+      </c>
+      <c r="F21" s="30">
+        <v>140</v>
+      </c>
+      <c r="G21" s="31">
+        <f>F21/C21</f>
+        <v>0.15086206896551724</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="30">
+        <f>C7+$C$1</f>
+        <v>528</v>
+      </c>
+      <c r="D22" s="30">
+        <v>3</v>
+      </c>
+      <c r="E22" s="30">
+        <f t="shared" si="1"/>
+        <v>528</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
+        <f>F22/C22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="30">
+        <f>C8+$C$1</f>
+        <v>828</v>
+      </c>
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30">
+        <f t="shared" si="1"/>
+        <v>988</v>
+      </c>
+      <c r="F23" s="30">
+        <v>160</v>
+      </c>
+      <c r="G23" s="31">
+        <f>F23/C23</f>
+        <v>0.19323671497584541</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0.193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
@@ -4,22 +4,86 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
     <sheet name="Задача 1(28)" sheetId="4" r:id="rId2"/>
     <sheet name="Задача 2(28)" sheetId="5" r:id="rId3"/>
+    <sheet name="Лист1 (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
+    <sheet name="Решение задачи 3" sheetId="8" r:id="rId6"/>
+    <sheet name="Решение задачи 3 (2)" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Задача 2(28)'!$B$17:$G$23</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Решение задачи 3'!$B$6:$C$6</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$B$6:$C$6</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Решение задачи 3'!$D$2:$D$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$D$2:$D$3</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Решение задачи 3'!$B$8</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$B$8</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Решение задачи 3'!$E$2:$E$3</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$E$2:$E$3</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="125">
   <si>
     <t>№ з/п</t>
   </si>
@@ -151,16 +215,481 @@
   </si>
   <si>
     <t>ТЗМ2</t>
+  </si>
+  <si>
+    <t>− объемы производства</t>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- го вида продукции</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> цены или прибыль единицы продукции;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">− нормативы расходов </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">- го вида ресурса на производство единицы </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>- го вида продукции;</t>
+    </r>
+  </si>
+  <si>
+    <t>Расходы сырья на 1 т краски, т</t>
+  </si>
+  <si>
+    <t>Вид сырья</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">краска </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">краска </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">спроса на краску </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> больше чем на 1 т. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">суточный спрос на краску </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оптовые цены за одну тону, тыс. руб </t>
+  </si>
+  <si>
+    <t xml:space="preserve">для краски E </t>
+  </si>
+  <si>
+    <t>для краски I</t>
+  </si>
+  <si>
+    <t>XE</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>maxZ</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Максимально возможны суточные запасы этого сырья составляют соответственно</t>
+  </si>
+  <si>
+    <t>для краски E, т.</t>
+  </si>
+  <si>
+    <t>для краски I, т.</t>
+  </si>
+  <si>
+    <t>т. в сутки</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Суточный</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L </t>
+  </si>
+  <si>
+    <t>Ресурс 1</t>
+  </si>
+  <si>
+    <t>Ресурс 2</t>
+  </si>
+  <si>
+    <t>Потрачено</t>
+  </si>
+  <si>
+    <t>Запас</t>
+  </si>
+  <si>
+    <t>Стоимость товара</t>
+  </si>
+  <si>
+    <t>Х1</t>
+  </si>
+  <si>
+    <t>Х2</t>
+  </si>
+  <si>
+    <t>Количество товара</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Товар 1(Е)</t>
+  </si>
+  <si>
+    <t>Товар 2(I)</t>
+  </si>
+  <si>
+    <t>XI&lt; 2т. в сутки</t>
+  </si>
+  <si>
+    <t>XI-XЕ&lt;1</t>
+  </si>
+  <si>
+    <t>Ресурс 1(А)</t>
+  </si>
+  <si>
+    <t>Ресурс 2(В)</t>
+  </si>
+  <si>
+    <t>Товар 1(I)</t>
+  </si>
+  <si>
+    <t>Товар 2(Е)</t>
+  </si>
+  <si>
+    <t>Базисные переменные</t>
+  </si>
+  <si>
+    <t>Свободные члены</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>–1</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>–3</t>
+  </si>
+  <si>
+    <t>–2</t>
+  </si>
+  <si>
+    <t>1итерация</t>
+  </si>
+  <si>
+    <t>–1/2</t>
+  </si>
+  <si>
+    <t>2 итерация</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <t>–1/3</t>
+  </si>
+  <si>
+    <t>–2/3</t>
+  </si>
+  <si>
+    <t>38/3</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4/3</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>10/3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +733,79 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +818,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -416,11 +1034,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,6 +1135,49 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -495,17 +1193,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,6 +1277,221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>581025</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,23 +1795,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1261,19 +2233,19 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="24"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1621,19 +2593,19 @@
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="24"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -2088,33 +3060,33 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="K2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +3106,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="45"/>
       <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2883,19 +3855,19 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
     </row>
     <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="24"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -3243,19 +4215,19 @@
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="24"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +4664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H18:H23"/>
     </sheetView>
   </sheetViews>
@@ -3714,36 +4686,36 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="25">
         <v>720</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="25">
         <v>3</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="25">
         <v>790</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="25">
         <v>70</v>
       </c>
       <c r="G3">
@@ -3752,19 +4724,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="25">
         <v>450</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="25">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="25">
         <v>560</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="25">
         <v>110</v>
       </c>
       <c r="G4">
@@ -3773,19 +4745,19 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="25">
         <v>230</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>300</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>70</v>
       </c>
       <c r="G5">
@@ -3794,19 +4766,19 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>900</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="25">
         <v>4</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>1040</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>140</v>
       </c>
       <c r="G6">
@@ -3815,19 +4787,19 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>500</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <v>3</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>500</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>0</v>
       </c>
       <c r="G7">
@@ -3836,19 +4808,19 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>800</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>960</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>160</v>
       </c>
       <c r="G8">
@@ -3857,45 +4829,45 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="30">
-        <f>C3+$C$1</f>
+      <c r="C18" s="25">
+        <f t="shared" ref="C18:C23" si="1">C3+$C$1</f>
         <v>748</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="25">
         <v>3</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="25">
         <f>E3+$C$1</f>
         <v>818</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="25">
         <v>70</v>
       </c>
-      <c r="G18" s="31">
-        <f>F18/C18</f>
+      <c r="G18" s="26">
+        <f t="shared" ref="G18:G23" si="2">F18/C18</f>
         <v>9.3582887700534759E-2</v>
       </c>
       <c r="H18" s="17">
@@ -3903,133 +4875,1716 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="30">
-        <f>C4+$C$1</f>
+      <c r="C19" s="25">
+        <f t="shared" si="1"/>
         <v>478</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="25">
         <v>3</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" ref="E19:E23" si="1">E4+$C$1</f>
+      <c r="E19" s="25">
+        <f t="shared" ref="E19:E23" si="3">E4+$C$1</f>
         <v>588</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="25">
         <v>110</v>
       </c>
-      <c r="G19" s="31">
-        <f>F19/C19</f>
+      <c r="G19" s="26">
+        <f t="shared" si="2"/>
         <v>0.23012552301255229</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="28">
         <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="30">
-        <f>C5+$C$1</f>
+      <c r="C20" s="25">
+        <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="25">
         <v>1</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="25">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="F20" s="25">
+        <v>70</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="2"/>
+        <v>0.27131782945736432</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="25">
         <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
-      <c r="F20" s="30">
-        <v>70</v>
-      </c>
-      <c r="G20" s="31">
-        <f>F20/C20</f>
-        <v>0.27131782945736432</v>
-      </c>
-      <c r="H20" s="33">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="30">
-        <f>C6+$C$1</f>
         <v>928</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="25">
         <v>4</v>
       </c>
-      <c r="E21" s="30">
-        <f t="shared" si="1"/>
+      <c r="E21" s="25">
+        <f t="shared" si="3"/>
         <v>1068</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="25">
         <v>140</v>
       </c>
-      <c r="G21" s="31">
-        <f>F21/C21</f>
+      <c r="G21" s="26">
+        <f t="shared" si="2"/>
         <v>0.15086206896551724</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="28">
         <v>0.151</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="30">
-        <f>C7+$C$1</f>
-        <v>528</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3</v>
-      </c>
-      <c r="E22" s="30">
+      <c r="C22" s="25">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="F22" s="30">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31">
-        <f>F22/C22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
+      <c r="D22" s="25">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="3"/>
+        <v>528</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="30">
-        <f>C8+$C$1</f>
+      <c r="C23" s="25">
+        <f t="shared" si="1"/>
         <v>828</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="25">
         <v>2</v>
       </c>
-      <c r="E23" s="30">
-        <f t="shared" si="1"/>
+      <c r="E23" s="25">
+        <f t="shared" si="3"/>
         <v>988</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="25">
         <v>160</v>
       </c>
-      <c r="G23" s="31">
-        <f>F23/C23</f>
+      <c r="G23" s="26">
+        <f t="shared" si="2"/>
         <v>0.19323671497584541</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="29">
         <v>0.193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="34"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K10" s="24"/>
+      <c r="L10" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="K11" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1</v>
+      </c>
+      <c r="M12" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K13" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="25">
+        <v>2</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="K21" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="50"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="K23" s="16">
+        <v>3</v>
+      </c>
+      <c r="L23" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="K25" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="K26" s="17">
+        <v>6</v>
+      </c>
+      <c r="L26" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="40">
+        <f>K23</f>
+        <v>3</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="40">
+        <f>L23</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="40">
+        <f>G27</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="41">
+        <f>K26</f>
+        <v>6</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="39">
+        <f>G19</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="41">
+        <f>L26</f>
+        <v>8</v>
+      </c>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="41">
+        <f>G17</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="43">
+        <f>G19</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="K21:L21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5121" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5121" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5122" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5122" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="5123" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="5123" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:L23"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="34"/>
+    <col min="5" max="5" width="10.140625" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="34">
+        <v>50</v>
+      </c>
+      <c r="H3" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="34">
+        <v>1</v>
+      </c>
+      <c r="H8" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="34">
+        <v>2</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="34">
+        <f>G3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="34">
+        <f>H3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="34">
+        <f>I10</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="34">
+        <f>G6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="7:12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="34">
+        <v>2</v>
+      </c>
+      <c r="J23" s="34" t="str">
+        <f>G18</f>
+        <v>X1</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="34" t="str">
+        <f>G21</f>
+        <v>X2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>2</v>
+      </c>
+      <c r="D2" s="52">
+        <f>SUMPRODUCT(B2:C2,$B$6:$C$6)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="54">
+        <v>2</v>
+      </c>
+      <c r="C3" s="54">
+        <v>1</v>
+      </c>
+      <c r="D3" s="52">
+        <f>SUMPRODUCT(B3:C3,$B$6:$C$6)</f>
+        <v>8</v>
+      </c>
+      <c r="E3" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="54">
+        <v>3</v>
+      </c>
+      <c r="C4" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="59">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C6" s="59">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="60">
+        <f>SUMPRODUCT(B4:C4,B6:C6)</f>
+        <v>12.666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="64">
+        <v>6</v>
+      </c>
+      <c r="C16" s="64">
+        <v>1</v>
+      </c>
+      <c r="D16" s="64">
+        <v>2</v>
+      </c>
+      <c r="E16" s="64">
+        <v>1</v>
+      </c>
+      <c r="F16" s="64">
+        <v>0</v>
+      </c>
+      <c r="G16" s="64">
+        <v>0</v>
+      </c>
+      <c r="H16" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="64">
+        <v>8</v>
+      </c>
+      <c r="C17" s="64">
+        <v>2</v>
+      </c>
+      <c r="D17" s="64">
+        <v>1</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0</v>
+      </c>
+      <c r="F17" s="64">
+        <v>1</v>
+      </c>
+      <c r="G17" s="64">
+        <v>0</v>
+      </c>
+      <c r="H17" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="64">
+        <v>1</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="64">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
+        <v>0</v>
+      </c>
+      <c r="F18" s="64">
+        <v>0</v>
+      </c>
+      <c r="G18" s="64">
+        <v>1</v>
+      </c>
+      <c r="H18" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="64">
+        <v>2</v>
+      </c>
+      <c r="C19" s="64">
+        <v>0</v>
+      </c>
+      <c r="D19" s="64">
+        <v>1</v>
+      </c>
+      <c r="E19" s="64">
+        <v>0</v>
+      </c>
+      <c r="F19" s="64">
+        <v>0</v>
+      </c>
+      <c r="G19" s="64">
+        <v>0</v>
+      </c>
+      <c r="H19" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="64">
+        <v>0</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="64">
+        <v>0</v>
+      </c>
+      <c r="F20" s="64">
+        <v>0</v>
+      </c>
+      <c r="G20" s="64">
+        <v>0</v>
+      </c>
+      <c r="H20" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="6145" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="6145" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="6146" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="6146" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
+        <v>1</v>
+      </c>
+      <c r="D2" s="52">
+        <f>SUMPRODUCT(B2:C2,$B$6:$C$6)</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="54">
+        <v>2</v>
+      </c>
+      <c r="C3" s="54">
+        <v>2</v>
+      </c>
+      <c r="D3" s="52">
+        <f>SUMPRODUCT(B3:C3,$B$6:$C$6)</f>
+        <v>14</v>
+      </c>
+      <c r="E3" s="54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="54">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="59">
+        <v>0</v>
+      </c>
+      <c r="C6" s="59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="58"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="59">
+        <f>SUMPRODUCT(B4:C4,B6:C6)</f>
+        <v>21</v>
+      </c>
+      <c r="C8" s="58"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
+++ b/Контрольные на 6-й семестр/07_Исследование систем управления/!_КР/Расчеты.xlsx
@@ -4,86 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Образец" sheetId="1" r:id="rId1"/>
     <sheet name="Задача 1(28)" sheetId="4" r:id="rId2"/>
     <sheet name="Задача 2(28)" sheetId="5" r:id="rId3"/>
-    <sheet name="Лист1 (2)" sheetId="7" r:id="rId4"/>
-    <sheet name="Лист1" sheetId="6" r:id="rId5"/>
-    <sheet name="Решение задачи 3" sheetId="8" r:id="rId6"/>
-    <sheet name="Решение задачи 3 (2)" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Задача 2(28)'!$B$17:$G$23</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Решение задачи 3'!$B$6:$C$6</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$B$6:$C$6</definedName>
-    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Решение задачи 3'!$D$2:$D$3</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$D$2:$D$3</definedName>
-    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Решение задачи 3'!$B$8</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$B$8</definedName>
-    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Решение задачи 3'!$E$2:$E$3</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Решение задачи 3 (2)'!$E$2:$E$3</definedName>
-    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="44">
   <si>
     <t>№ з/п</t>
   </si>
@@ -215,481 +151,16 @@
   </si>
   <si>
     <t>ТЗМ2</t>
-  </si>
-  <si>
-    <t>− объемы производства</t>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>- го вида продукции</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> цены или прибыль единицы продукции;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">− нормативы расходов </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">- го вида ресурса на производство единицы </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>- го вида продукции;</t>
-    </r>
-  </si>
-  <si>
-    <t>Расходы сырья на 1 т краски, т</t>
-  </si>
-  <si>
-    <t>Вид сырья</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">краска </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">краска </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>I</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">спроса на краску </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> больше чем на 1 т. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">суточный спрос на краску </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оптовые цены за одну тону, тыс. руб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">для краски E </t>
-  </si>
-  <si>
-    <t>для краски I</t>
-  </si>
-  <si>
-    <t>XE</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
-    <t>maxZ</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Максимально возможны суточные запасы этого сырья составляют соответственно</t>
-  </si>
-  <si>
-    <t>для краски E, т.</t>
-  </si>
-  <si>
-    <t>для краски I, т.</t>
-  </si>
-  <si>
-    <t>т. в сутки</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Суточный</t>
-  </si>
-  <si>
-    <t>Расход</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L </t>
-  </si>
-  <si>
-    <t>Ресурс 1</t>
-  </si>
-  <si>
-    <t>Ресурс 2</t>
-  </si>
-  <si>
-    <t>Потрачено</t>
-  </si>
-  <si>
-    <t>Запас</t>
-  </si>
-  <si>
-    <t>Стоимость товара</t>
-  </si>
-  <si>
-    <t>Х1</t>
-  </si>
-  <si>
-    <t>Х2</t>
-  </si>
-  <si>
-    <t>Количество товара</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Доход</t>
-  </si>
-  <si>
-    <t>Товар 1(Е)</t>
-  </si>
-  <si>
-    <t>Товар 2(I)</t>
-  </si>
-  <si>
-    <t>XI&lt; 2т. в сутки</t>
-  </si>
-  <si>
-    <t>XI-XЕ&lt;1</t>
-  </si>
-  <si>
-    <t>Ресурс 1(А)</t>
-  </si>
-  <si>
-    <t>Ресурс 2(В)</t>
-  </si>
-  <si>
-    <t>Товар 1(I)</t>
-  </si>
-  <si>
-    <t>Товар 2(Е)</t>
-  </si>
-  <si>
-    <t>Базисные переменные</t>
-  </si>
-  <si>
-    <t>Свободные члены</t>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>E</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <t>–1</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>–3</t>
-  </si>
-  <si>
-    <t>–2</t>
-  </si>
-  <si>
-    <t>1итерация</t>
-  </si>
-  <si>
-    <t>–1/2</t>
-  </si>
-  <si>
-    <t>2 итерация</t>
-  </si>
-  <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>I</t>
-    </r>
-  </si>
-  <si>
-    <t>–1/3</t>
-  </si>
-  <si>
-    <t>–2/3</t>
-  </si>
-  <si>
-    <t>38/3</t>
-  </si>
-  <si>
-    <t>3/2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4/3</t>
-  </si>
-  <si>
-    <t>2/3</t>
-  </si>
-  <si>
-    <t>10/3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1/3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,79 +204,8 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <i/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <vertAlign val="subscript"/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,26 +218,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1034,48 +416,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1135,49 +480,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,76 +495,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1277,221 +520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>581025</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5121"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5122"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="5123" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s5123"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>619125</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6145" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6145"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="6146" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s6146"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,23 +823,23 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2233,19 +1261,19 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="45"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2593,19 +1621,19 @@
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="45"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3060,33 +2088,33 @@
       </c>
     </row>
     <row r="2" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
-      <c r="K2" s="44" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="K2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="11"/>
-      <c r="K3" s="45"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3855,19 +2883,19 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="45"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
@@ -4215,19 +3243,19 @@
       </c>
     </row>
     <row r="42" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
     </row>
     <row r="43" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="45"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="1" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H18:H23"/>
     </sheetView>
   </sheetViews>
@@ -4686,36 +3714,36 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="30">
         <v>720</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="30">
         <v>3</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="30">
         <v>790</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="30">
         <v>70</v>
       </c>
       <c r="G3">
@@ -4724,19 +3752,19 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="30">
         <v>450</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="30">
         <v>3</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="30">
         <v>560</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="30">
         <v>110</v>
       </c>
       <c r="G4">
@@ -4745,19 +3773,19 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="30">
         <v>230</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="30">
         <v>1</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="30">
         <v>300</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="30">
         <v>70</v>
       </c>
       <c r="G5">
@@ -4766,19 +3794,19 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="30">
         <v>900</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="30">
         <v>4</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="30">
         <v>1040</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="30">
         <v>140</v>
       </c>
       <c r="G6">
@@ -4787,19 +3815,19 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="30">
         <v>500</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="30">
         <v>500</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="30">
         <v>0</v>
       </c>
       <c r="G7">
@@ -4808,19 +3836,19 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="30">
         <v>800</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="30">
         <v>960</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="30">
         <v>160</v>
       </c>
       <c r="G8">
@@ -4829,45 +3857,45 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="25">
-        <f t="shared" ref="C18:C23" si="1">C3+$C$1</f>
+      <c r="C18" s="30">
+        <f>C3+$C$1</f>
         <v>748</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="30">
         <f>E3+$C$1</f>
         <v>818</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="30">
         <v>70</v>
       </c>
-      <c r="G18" s="26">
-        <f t="shared" ref="G18:G23" si="2">F18/C18</f>
+      <c r="G18" s="31">
+        <f>F18/C18</f>
         <v>9.3582887700534759E-2</v>
       </c>
       <c r="H18" s="17">
@@ -4875,1716 +3903,133 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="30">
+        <f>C4+$C$1</f>
+        <v>478</v>
+      </c>
+      <c r="D19" s="30">
+        <v>3</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" ref="E19:E23" si="1">E4+$C$1</f>
+        <v>588</v>
+      </c>
+      <c r="F19" s="30">
+        <v>110</v>
+      </c>
+      <c r="G19" s="31">
+        <f>F19/C19</f>
+        <v>0.23012552301255229</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="30">
+        <f>C5+$C$1</f>
+        <v>258</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>478</v>
-      </c>
-      <c r="D19" s="25">
+        <v>328</v>
+      </c>
+      <c r="F20" s="30">
+        <v>70</v>
+      </c>
+      <c r="G20" s="31">
+        <f>F20/C20</f>
+        <v>0.27131782945736432</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="30">
+        <f>C6+$C$1</f>
+        <v>928</v>
+      </c>
+      <c r="D21" s="30">
+        <v>4</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="1"/>
+        <v>1068</v>
+      </c>
+      <c r="F21" s="30">
+        <v>140</v>
+      </c>
+      <c r="G21" s="31">
+        <f>F21/C21</f>
+        <v>0.15086206896551724</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="30">
+        <f>C7+$C$1</f>
+        <v>528</v>
+      </c>
+      <c r="D22" s="30">
         <v>3</v>
       </c>
-      <c r="E19" s="25">
-        <f t="shared" ref="E19:E23" si="3">E4+$C$1</f>
-        <v>588</v>
-      </c>
-      <c r="F19" s="25">
-        <v>110</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="2"/>
-        <v>0.23012552301255229</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="25">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="F20" s="25">
-        <v>70</v>
-      </c>
-      <c r="G20" s="26">
-        <f t="shared" si="2"/>
-        <v>0.27131782945736432</v>
-      </c>
-      <c r="H20" s="28">
-        <v>0.27100000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="25">
-        <f t="shared" si="1"/>
-        <v>928</v>
-      </c>
-      <c r="D21" s="25">
-        <v>4</v>
-      </c>
-      <c r="E21" s="25">
-        <f t="shared" si="3"/>
-        <v>1068</v>
-      </c>
-      <c r="F21" s="25">
-        <v>140</v>
-      </c>
-      <c r="G21" s="26">
-        <f t="shared" si="2"/>
-        <v>0.15086206896551724</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="E22" s="30">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="D22" s="25">
-        <v>3</v>
-      </c>
-      <c r="E22" s="25">
-        <f t="shared" si="3"/>
-        <v>528</v>
-      </c>
-      <c r="F22" s="25">
+      <c r="F22" s="30">
         <v>0</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" si="2"/>
+      <c r="G22" s="31">
+        <f>F22/C22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="30">
+        <f>C8+$C$1</f>
+        <v>828</v>
+      </c>
+      <c r="D23" s="30">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>828</v>
-      </c>
-      <c r="D23" s="25">
-        <v>2</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" si="3"/>
         <v>988</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="30">
         <v>160</v>
       </c>
-      <c r="G23" s="26">
-        <f t="shared" si="2"/>
+      <c r="G23" s="31">
+        <f>F23/C23</f>
         <v>0.19323671497584541</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="34">
         <v>0.193</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="34"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="K10" s="24"/>
-      <c r="L10" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="49"/>
-    </row>
-    <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="K11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="K12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="25">
-        <v>1</v>
-      </c>
-      <c r="M12" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="K13" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="25">
-        <v>2</v>
-      </c>
-      <c r="M13" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="17">
-        <v>2</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="K21" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="38"/>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="K22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="K23" s="16">
-        <v>3</v>
-      </c>
-      <c r="L23" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="K25" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="K26" s="17">
-        <v>6</v>
-      </c>
-      <c r="L26" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="40">
-        <f>K23</f>
-        <v>3</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="40">
-        <f>L23</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="40">
-        <f>G27</f>
-        <v>2</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="41">
-        <f>K26</f>
-        <v>6</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="39">
-        <f>G19</f>
-        <v>2</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="41">
-        <f>L26</f>
-        <v>8</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="41">
-        <f>G17</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="43">
-        <f>G19</f>
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="K21:L21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="5121" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="5121" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="5122" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="5122" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="5123" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="5123" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:L23"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="9.140625" style="34"/>
-    <col min="5" max="5" width="10.140625" style="34" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="34">
-        <v>50</v>
-      </c>
-      <c r="H3" s="34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G6" s="34">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="34">
-        <v>2</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="34">
-        <f>G3</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="34">
-        <f>H3</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G18" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="34">
-        <f>I10</f>
-        <v>2</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="34">
-        <f>G6</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="7:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G20" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G21" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" s="34">
-        <v>2</v>
-      </c>
-      <c r="J23" s="34" t="str">
-        <f>G18</f>
-        <v>X1</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="34" t="str">
-        <f>G21</f>
-        <v>X2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54">
-        <v>2</v>
-      </c>
-      <c r="D2" s="52">
-        <f>SUMPRODUCT(B2:C2,$B$6:$C$6)</f>
-        <v>6</v>
-      </c>
-      <c r="E2" s="54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="54">
-        <v>2</v>
-      </c>
-      <c r="C3" s="54">
-        <v>1</v>
-      </c>
-      <c r="D3" s="52">
-        <f>SUMPRODUCT(B3:C3,$B$6:$C$6)</f>
-        <v>8</v>
-      </c>
-      <c r="E3" s="54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="54">
-        <v>3</v>
-      </c>
-      <c r="C4" s="54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="59">
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="C6" s="59">
-        <v>1.3333333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="60">
-        <f>SUMPRODUCT(B4:C4,B6:C6)</f>
-        <v>12.666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="64">
-        <v>6</v>
-      </c>
-      <c r="C16" s="64">
-        <v>1</v>
-      </c>
-      <c r="D16" s="64">
-        <v>2</v>
-      </c>
-      <c r="E16" s="64">
-        <v>1</v>
-      </c>
-      <c r="F16" s="64">
-        <v>0</v>
-      </c>
-      <c r="G16" s="64">
-        <v>0</v>
-      </c>
-      <c r="H16" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="64">
-        <v>8</v>
-      </c>
-      <c r="C17" s="64">
-        <v>2</v>
-      </c>
-      <c r="D17" s="64">
-        <v>1</v>
-      </c>
-      <c r="E17" s="64">
-        <v>0</v>
-      </c>
-      <c r="F17" s="64">
-        <v>1</v>
-      </c>
-      <c r="G17" s="64">
-        <v>0</v>
-      </c>
-      <c r="H17" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="64">
-        <v>1</v>
-      </c>
-      <c r="C18" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="64">
-        <v>1</v>
-      </c>
-      <c r="E18" s="64">
-        <v>0</v>
-      </c>
-      <c r="F18" s="64">
-        <v>0</v>
-      </c>
-      <c r="G18" s="64">
-        <v>1</v>
-      </c>
-      <c r="H18" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="64">
-        <v>2</v>
-      </c>
-      <c r="C19" s="64">
-        <v>0</v>
-      </c>
-      <c r="D19" s="64">
-        <v>1</v>
-      </c>
-      <c r="E19" s="64">
-        <v>0</v>
-      </c>
-      <c r="F19" s="64">
-        <v>0</v>
-      </c>
-      <c r="G19" s="64">
-        <v>0</v>
-      </c>
-      <c r="H19" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="64">
-        <v>0</v>
-      </c>
-      <c r="C20" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="64">
-        <v>0</v>
-      </c>
-      <c r="F20" s="64">
-        <v>0</v>
-      </c>
-      <c r="G20" s="64">
-        <v>0</v>
-      </c>
-      <c r="H20" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="G25" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H25" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="G32" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="69" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="6145" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="6145" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="6146" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="6146" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="54">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54">
-        <v>1</v>
-      </c>
-      <c r="D2" s="52">
-        <f>SUMPRODUCT(B2:C2,$B$6:$C$6)</f>
-        <v>7</v>
-      </c>
-      <c r="E2" s="54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="54">
-        <v>2</v>
-      </c>
-      <c r="C3" s="54">
-        <v>2</v>
-      </c>
-      <c r="D3" s="52">
-        <f>SUMPRODUCT(B3:C3,$B$6:$C$6)</f>
-        <v>14</v>
-      </c>
-      <c r="E3" s="54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="54">
-        <v>1</v>
-      </c>
-      <c r="C4" s="54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="59">
-        <v>0</v>
-      </c>
-      <c r="C6" s="59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="58"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="59">
-        <f>SUMPRODUCT(B4:C4,B6:C6)</f>
-        <v>21</v>
-      </c>
-      <c r="C8" s="58"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
